--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1030,30 +1030,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1117,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1131,28 +1113,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1496,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1532,20 +1495,20 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="203.25" thickBot="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1554,65 +1517,64 @@
       <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="203.25" thickBot="1">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="372" thickBot="1">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="225.75" thickBot="1">
       <c r="A6" s="1">
@@ -1669,74 +1631,74 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="225.75" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="225.75" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="192" thickBot="1">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1745,25 +1707,25 @@
       <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="214.5" thickBot="1">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1772,68 +1734,70 @@
       <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="214.5" thickBot="1">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="282" thickBot="1">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="338.25" thickBot="1">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1890,145 +1854,145 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="372" thickBot="1">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="409.6" thickBot="1">
-      <c r="A18" s="9">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="327" thickBot="1">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="372" thickBot="1">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="9"/>
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:L20"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$B$1:$L$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$B$1:$L$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -155,94 +155,214 @@
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0994
+};
+validate4
+{
+validate_Result=false
+};
+validate5
+{
+validate_Screenshot=VT200_0994
+};</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0999
+};
+validate4
+{
+validate_Result=true
+};
+validate5
+{
+validate_Screenshot=VT200_0999
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0980
+};
+validate5
+{
+validate_Alert=Hello
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0993
+};
+validate4
+{
+validate_Result=true
+};
+validate5
+{
+validate_Screenshot=VT200_0993_before
+};
+validate6
+{
+validate_Screenshot=VT200_0993_after
+};</t>
+  </si>
+  <si>
+    <t>Check enableZoom as false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is true
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1003
+};
+validate4
+{
+validate_Result=true
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1004
+};
+validate4
+{
+validate_Result=1. enable_web_plugins set value is 0
+validate_Result=2. WebView enableWebPlugins value is true
+};
+</t>
+  </si>
+  <si>
+    <t>Check enableWebPlugins as false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1004
+};
+validate4
+{
+validate_Result=1. enable_web_plugins set value is 0
+validate_Result=2. WebView enableWebPlugins value is false
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
-wait(5);
 validate2;
-SelectTestToRun(VT200_0978_xapth);
-ClickRunTest(runtest_top_xpath);
-wait(5);
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0978);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0993_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
 validate4;
-SwitchToTab(tab4_xpath);
-wait(5);
-SwitchToTab(tab0_xpath);
-wait(5);
-SelectTestToRun(VT301_0054_xpath);
-ClickRunTest(runtest_top_xpath);
-wait(5);
+TakeScreenshot(VT200_0993_before);
 validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate6;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0978
-};
-validate4
-{
-validate_Screenshot=VT200_0978
-};
-validate5
-{
-validate_Text_Exists=VT301-0054
-};
-validate6
-{
-validate_Result=http://127.0.0.1:61097/app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0994
-};
-validate4
-{
-validate_Result=false
-};
-validate5
-{
-validate_Screenshot=VT200_0994
-};</t>
-  </si>
-  <si>
-    <t>to be added</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Correction required</t>
-  </si>
-  <si>
-    <t>correction Required</t>
-  </si>
-  <si>
-    <t>wait(5);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200_0993_after);
+validate6;</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
@@ -250,36 +370,14 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
+wait(2);
 validate4;
 TakeScreenshot(VT200_0994);
 wait(2);
 validate5;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0999
-};
-validate4
-{
-validate_Result=true
-};
-validate5
-{
-validate_Screenshot=VT200_0999
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
@@ -287,14 +385,14 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
+wait(2);
 validate4;
 TakeNativeScreenshot(VT200_0995);
 wait(2);
 validate5;</t>
   </si>
   <si>
-    <t>wait(5);
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
@@ -308,7 +406,7 @@
 validate5;</t>
   </si>
   <si>
-    <t>wait(5);
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
@@ -322,6 +420,177 @@
 validate5;</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0977
+};
+validate5
+{
+validate_Alert=Active Tab is: 1
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0977_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0983
+};
+validate5
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(5);
+TakeNativeScreenshot(VT200_beforenavigateback);
+validate5;
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(4);
+TakeNativeScreenshot(VT200_0986);
+validate7;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate5
+{
+validate_Screenshot=VT200_beforenavigateback
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};
+validate7
+{
+validate_Screenshot=VT200_0986
+};</t>
+  </si>
+  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -332,16 +601,50 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0980
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
 };
 validate5
 {
-validate_Alert=Hello
+validate_Screenshot=VT200_0985
 };
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(4);
+TakeNativeScreenshot(VT200_0985);
+validate5;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
@@ -354,7 +657,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -368,23 +671,52 @@
 };
 validate4
 {
-validate_Screenshot=VT200_0976
+validate_Text_Exists=VT200-0979
 };
 validate5
 {
-validate_Screenshot=VT200_0976_tab1
-};
-validate6
-{
-validate_Text_Exists=VT200-0985
-};
-validate7
-{
-validate_Screenshot=VT200_0985
-};
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
 </t>
   </si>
   <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1000_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -395,156 +727,294 @@
 };
 validate3
 {
+validate_Text_Exists=VT200-1000
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+TakeScreenshot(VT200_1002_before);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200-1002);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is false
+};
+validate5
+{
+validate_Screenshot=VT200_1002_before
+validate_Screenshot=VT200-1002
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
 validate_Text_Exists=VT200-0976
 };
 validate4
 {
-validate_Screenshot=VT200_0976
-};
-validate5
-{
-validate_Screenshot=VT200_0976_tab1
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
-};
-validate7
-{
-validate_Screenshot=VT200_0987
+validate_Text_Exists=VT200-0981
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-TakeScreenshot(VT200_0976);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
 validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0979_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate6;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-validate7;
-</t>
-  </si>
-  <si>
-    <t>wait(5);
+CheckUITextContains(Tab_2);
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-wait(2);
 validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0976);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(4);
-TakeNativeScreenshot(VT200_0987);
-validate7;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Screenshot=VT200_0976
-};
-validate5
-{
-validate_Screenshot=VT200_0976_tab1
-};
-validate6
-{
-validate_Text_Exists=VT200-0979
-};
-validate7
-{
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0979_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-wait(3);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200_0976);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
+validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-TakeNativeScreenshot(VT200_0985);
-validate7;
-</t>
+link_Click(VT200_0976_tab4_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
   </si>
   <si>
     <t>validate1
@@ -559,449 +1029,71 @@
 {
 validate_Text_Exists=VT200-0976
 };
-validate4
-{
-validate_Screenshot=VT200_0976
-};
 validate5
 {
-validate_Screenshot=VT200_0976_tab1
+validate_Text_Exists=VT200-0978
 };
 validate6
 {
-validate_Text_Exists=VT200-0983
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
 };
 validate7
 {
-validate_Result=true
+validate_Screenshot=VT200_0987_after
 };</t>
   </si>
   <si>
-    <t>wait(5);
+    <t>wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0976);
-validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
 validate5;
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
 validate6;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+TakeNativeScreenshot(VT200_0987_after);
 validate7;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Screenshot=VT200_0976
-};
-validate5
-{
-validate_Screenshot=VT200_0976_tab1
-};
-validate6
-{
-validate_Text_Exists=VT200-0977
-};
-validate7
-{
-validate_Alert=Active Tab is: 1
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0976);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0977_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-SwitchApp(WEBVIEW);
-wait(4);
-validate7;
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0993_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-TakeScreenshot(VT200_0993_before);
-validate5;
-wait(2);
-TakeScreenshot(VT200_0993_after);
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0993
-};
-validate4
-{
-validate_Result=true
-};
-validate5
-{
-validate_Screenshot=VT200_0993_before
-};
-validate6
-{
-validate_Screenshot=VT200_0993_after
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Screenshot=VT200_0976
-};
-validate5
-{
-validate_Screenshot=VT200_0976_tab1
-};
-validate6
-{
-validate_Text_Exists=VT200-0985
-};
-validate7
-{
-validate_Screenshot=VT200_0985
-};
-validate8
-{
-validate_Text_Exists=VT200-0986
-};
-validate9
-{
-validate_Screenshot=VT200_0986
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0976);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0981);
-validate6;</t>
-  </si>
-  <si>
-    <t>Check enableZoom as false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is true
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is false
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1003
-};
-validate4
-{
-validate_Result=true
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1004
-};
-validate4
-{
-validate_Result=1. enable_web_plugins set value is 0
-validate_Result=2. WebView enableWebPlugins value is true
-};
-</t>
-  </si>
-  <si>
-    <t>Check enableWebPlugins as false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1004
-};
-validate4
-{
-validate_Result=1. enable_web_plugins set value is 0
-validate_Result=2. WebView enableWebPlugins value is false
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Screenshot=VT200_0976
-};
-validate5
-{
-validate_Text_Exists=VT200-0981
-};
-validate6
-{
-validate_Screenshot=VT200_0981
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200_0976);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-TakeNativeScreenshot(VT200_0976_tab1);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(5);
-TakeNativeScreenshot(VT200_0985);
-validate7;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate8;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-TakeNativeScreenshot(VT200_0986);
-validate9;</t>
   </si>
 </sst>
 </file>
@@ -1030,18 +1122,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1099,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1109,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1410,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,7 +1507,7 @@
     <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" thickBot="1">
@@ -1459,8 +1542,8 @@
         <v>9</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
+      <c r="L1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="270.75" thickBot="1">
@@ -1483,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -1512,19 +1595,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="203.25" thickBot="1">
+    </row>
+    <row r="4" spans="1:12" ht="248.25" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1536,20 +1616,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="372" thickBot="1">
+    <row r="5" spans="1:12" ht="315.75" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1567,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1594,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1621,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
@@ -1642,22 +1722,22 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="225.75" thickBot="1">
+    <row r="9" spans="1:12" ht="180.75" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1669,22 +1749,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="192" thickBot="1">
+    <row r="10" spans="1:12" ht="225.75" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1696,50 +1776,47 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="214.5" thickBot="1">
+    <row r="11" spans="1:12" ht="192" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="214.5" thickBot="1">
       <c r="A12" s="1">
@@ -1753,20 +1830,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="282" thickBot="1">
+    <row r="13" spans="1:12" ht="214.5" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1778,25 +1857,20 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="338.25" thickBot="1">
+    </row>
+    <row r="14" spans="1:12" ht="259.5" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1808,22 +1882,22 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="203.25" thickBot="1">
+    <row r="15" spans="1:12" ht="259.5" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1835,22 +1909,22 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="315.75" thickBot="1">
+    <row r="16" spans="1:12" ht="203.25" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1862,25 +1936,22 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="372" thickBot="1">
+    </row>
+    <row r="17" spans="1:11" ht="270.75" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1892,22 +1963,22 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="409.6" thickBot="1">
+    <row r="18" spans="1:11" ht="315.75" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1919,37 +1990,34 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="327" thickBot="1">
+    </row>
+    <row r="19" spans="1:11" ht="409.6" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1958,13 +2026,13 @@
         <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="372" thickBot="1">
+    <row r="20" spans="1:11" ht="270.75" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1976,26 +2044,175 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:11" ht="270.75" thickBot="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="180.75" thickBot="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="180.75" thickBot="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="180.75" thickBot="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="180.75" thickBot="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="180.75" thickBot="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L20"/>
+  <autoFilter ref="B1:L21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1089,17 +1089,22 @@
 validate6;
 ClickRunTest(runtest_bottom_xpath);
 SwitchApp(NATIVE_APP);
-wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(2);
 TakeNativeScreenshot(VT200_0987_after);
 validate7;</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1495,19 +1500,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" thickBot="1">
@@ -1574,7 +1579,9 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="203.25" thickBot="1">
@@ -1601,7 +1608,9 @@
         <v>38</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="248.25" thickBot="1">
@@ -1626,10 +1635,12 @@
         <v>64</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="315.75" thickBot="1">
+    <row r="5" spans="1:12" ht="293.25" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1653,7 +1664,9 @@
         <v>83</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="225.75" thickBot="1">
@@ -1680,7 +1693,9 @@
         <v>32</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="225.75" thickBot="1">
@@ -1707,7 +1722,9 @@
         <v>30</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="225.75" thickBot="1">
@@ -1734,7 +1751,9 @@
         <v>34</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="180.75" thickBot="1">
@@ -1761,7 +1780,9 @@
         <v>62</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="225.75" thickBot="1">
@@ -1815,7 +1836,9 @@
         <v>39</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="214.5" thickBot="1">
@@ -1842,7 +1865,9 @@
         <v>40</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="214.5" thickBot="1">
@@ -1867,7 +1892,9 @@
         <v>42</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="259.5" thickBot="1">
@@ -1894,7 +1921,9 @@
         <v>82</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="259.5" thickBot="1">
@@ -1921,7 +1950,9 @@
         <v>58</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="203.25" thickBot="1">
@@ -1948,7 +1979,9 @@
         <v>35</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="270.75" thickBot="1">
@@ -1975,7 +2008,9 @@
         <v>65</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="315.75" thickBot="1">
@@ -2002,7 +2037,9 @@
         <v>55</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="409.6" thickBot="1">
@@ -2029,7 +2066,9 @@
         <v>54</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="270.75" thickBot="1">
@@ -2056,7 +2095,9 @@
         <v>51</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="270.75" thickBot="1">
@@ -2083,7 +2124,9 @@
         <v>49</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="180.75" thickBot="1">
@@ -2108,7 +2151,9 @@
         <v>70</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="180.75" thickBot="1">
@@ -2133,7 +2178,9 @@
         <v>74</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="180.75" thickBot="1">
@@ -2158,7 +2205,9 @@
         <v>76</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="180.75" thickBot="1">
@@ -2183,7 +2232,9 @@
         <v>78</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="180.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -561,36 +561,6 @@
 validate7;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate5
-{
-validate_Screenshot=VT200_beforenavigateback
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};
-validate7
-{
-validate_Screenshot=VT200_0986
-};</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -795,6 +765,152 @@
 };</t>
   </si>
   <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(webview_test_link);
@@ -812,159 +928,12 @@
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0981_string);
+SelectTestToRun(VT200_0979_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-CheckUITextContains(Tab_2);
-CheckUITextContains(Hello);</t>
-  </si>
-  <si>
-    <t>Get enableCache as True</t>
-  </si>
-  <si>
-    <t>get webviewFramework</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0991_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0991
-};
-validate4
-{
-validate_SystemProperties=webviewFramework
-};</t>
-  </si>
-  <si>
-    <t>Do not set enableCache in Rhoconfig txt</t>
-  </si>
-  <si>
-    <t>Get enableCache as false</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0988_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0988
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0989_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0989
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0990_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=false
-};</t>
+validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -978,18 +947,67 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
+link_Click(VT200_0976_tab4_xpath);
 wait(2);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
+SelectTestToRun(VT200_0978_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Text_Exists=VT200-0978
+};
+validate6
+{
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
+};
+validate7
+{
+validate_Screenshot=VT200_0987_after
+};</t>
   </si>
   <si>
     <t>wait(3);
@@ -1000,21 +1018,24 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab4_xpath);
-wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0978_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+link_Click(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
   </si>
   <si>
     <t>validate1
@@ -1029,40 +1050,21 @@
 {
 validate_Text_Exists=VT200-0976
 };
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
 validate5
 {
-validate_Text_Exists=VT200-0978
+validate_Screenshot=VT200_0985beforenavigateback
 };
 validate6
 {
-validate_Result=http://127.0.0.1
-validate_Result=app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Screenshot=VT200_0987_before
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
+validate_Text_Exists=VT200-0986
 };
 validate7
 {
-validate_Screenshot=VT200_0987_after
+validate_Screenshot=VT200_0986
 };</t>
   </si>
   <si>
@@ -1074,37 +1076,27 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
+wait(2);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(Hello);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1500,19 +1492,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" thickBot="1">
@@ -1579,9 +1569,7 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="203.25" thickBot="1">
@@ -1608,9 +1596,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="248.25" thickBot="1">
@@ -1629,15 +1615,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="293.25" thickBot="1">
@@ -1658,15 +1642,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="225.75" thickBot="1">
@@ -1693,9 +1675,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="225.75" thickBot="1">
@@ -1722,9 +1702,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="225.75" thickBot="1">
@@ -1735,9 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1751,9 +1727,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="180.75" thickBot="1">
@@ -1764,9 +1738,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,15 +1746,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="225.75" thickBot="1">
@@ -1793,9 +1763,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,15 +1798,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="214.5" thickBot="1">
@@ -1859,15 +1825,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="214.5" thickBot="1">
@@ -1886,15 +1850,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="259.5" thickBot="1">
@@ -1915,15 +1877,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="259.5" thickBot="1">
@@ -1944,15 +1904,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="203.25" thickBot="1">
@@ -1973,18 +1931,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="270.75" thickBot="1">
+    <row r="17" spans="1:11" ht="259.5" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2002,15 +1958,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="315.75" thickBot="1">
@@ -2031,15 +1985,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="409.6" thickBot="1">
@@ -2063,12 +2015,10 @@
         <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="270.75" thickBot="1">
@@ -2095,9 +2045,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="270.75" thickBot="1">
@@ -2124,9 +2072,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="180.75" thickBot="1">
@@ -2141,19 +2087,17 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="180.75" thickBot="1">
@@ -2168,19 +2112,17 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="180.75" thickBot="1">
@@ -2195,19 +2137,17 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="180.75" thickBot="1">
@@ -2222,19 +2162,17 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="180.75" thickBot="1">
@@ -2249,14 +2187,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -516,6 +516,356 @@
 validate5;</t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate5
+{
+validate_Screenshot=VT200_0985
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(4);
+TakeNativeScreenshot(VT200_0985);
+validate5;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0980_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0979
+};
+validate5
+{
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1000_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1000
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+TakeScreenshot(VT200_1002_before);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200-1002);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is false
+};
+validate5
+{
+validate_Screenshot=VT200_1002_before
+validate_Screenshot=VT200-1002
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0981
+};</t>
+  </si>
+  <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(webview_test_link);
@@ -524,391 +874,21 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(5);
-TakeNativeScreenshot(VT200_beforenavigateback);
-validate5;
+wait(2);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
+SelectTestToRun(VT200_0979_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-TakeNativeScreenshot(VT200_0986);
-validate7;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate5
-{
-validate_Screenshot=VT200_0985
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-TakeNativeScreenshot(VT200_0985);
-validate5;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0980_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0979
-};
-validate5
-{
-validate_Result=http://127.0.0.1:
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1000_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1000
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-TakeScreenshot(VT200_1002_before);
-ZoomPage(body_xpath);
-wait(2);
-TakeScreenshot(VT200-1002);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is false
-};
-validate5
-{
-validate_Screenshot=VT200_1002_before
-validate_Screenshot=VT200-1002
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0981
-};</t>
-  </si>
-  <si>
-    <t>Get enableCache as True</t>
-  </si>
-  <si>
-    <t>get webviewFramework</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0991_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0991
-};
-validate4
-{
-validate_SystemProperties=webviewFramework
-};</t>
-  </si>
-  <si>
-    <t>Do not set enableCache in Rhoconfig txt</t>
-  </si>
-  <si>
-    <t>Get enableCache as false</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0988_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0988
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0989_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0989
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0990_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=false
-};</t>
+validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -922,18 +902,67 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
+link_Click(VT200_0976_tab4_xpath);
 wait(2);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
+SelectTestToRun(VT200_0978_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Text_Exists=VT200-0978
+};
+validate6
+{
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
+};
+validate7
+{
+validate_Screenshot=VT200_0987_after
+};</t>
   </si>
   <si>
     <t>wait(3);
@@ -944,70 +973,24 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab4_xpath);
-wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0978_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Text_Exists=VT200-0978
-};
-validate6
-{
-validate_Result=http://127.0.0.1
-validate_Result=app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Screenshot=VT200_0987_before
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
-};
-validate7
-{
-validate_Screenshot=VT200_0987_after
-};</t>
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+link_Click(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
   </si>
   <si>
     <t>wait(3);
@@ -1018,54 +1001,21 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
+wait(2);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate5
-{
-validate_Screenshot=VT200_0985beforenavigateback
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};
-validate7
-{
-validate_Screenshot=VT200_0986
-};</t>
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(Hello);</t>
   </si>
   <si>
     <t>wait(3);
@@ -1076,21 +1026,61 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
-wait(2);
+wait(5);
+CheckUITextContains(Google);
 link_Click(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-CheckUITextContains(Hello);</t>
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Page1);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1615,10 +1607,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1642,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1746,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1798,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -1825,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
@@ -1850,7 +1842,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>42</v>
@@ -1877,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1904,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1931,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -1958,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1985,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2012,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2087,14 +2079,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2112,14 +2104,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2137,14 +2129,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2162,14 +2154,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2187,14 +2179,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -516,7 +516,20 @@
 validate5;</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0980_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -530,13 +543,509 @@
 };
 validate4
 {
+validate_Text_Exists=VT200-0979
+};
+validate5
+{
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1000_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1000
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+TakeScreenshot(VT200_1002_before);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200-1002);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is false
+};
+validate5
+{
+validate_Screenshot=VT200_1002_before
+validate_Screenshot=VT200-1002
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0981
+};</t>
+  </si>
+  <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0979_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab4_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Text_Exists=VT200-0978
+};
+validate6
+{
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
+};
+validate7
+{
+validate_Screenshot=VT200_0987_after
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+link_Click(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(2);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(5);
+CheckUITextContains(Google);
+link_Click(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Page1);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
 validate_Text_Exists=VT200-0985
 };
-validate5
-{
-validate_Screenshot=VT200_0985
-};
-</t>
+validate6
+{
+validate_Text_Exists=VT200-0986
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -564,523 +1073,8 @@
 wait(2);
 link_Click(VT200_0976_tab1_xpath);
 wait(4);
-TakeNativeScreenshot(VT200_0985);
-validate5;
+CheckUITextContains(Google);
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0980_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0979
-};
-validate5
-{
-validate_Result=http://127.0.0.1:
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1000_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1000
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-TakeScreenshot(VT200_1002_before);
-ZoomPage(body_xpath);
-wait(2);
-TakeScreenshot(VT200-1002);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is false
-};
-validate5
-{
-validate_Screenshot=VT200_1002_before
-validate_Screenshot=VT200-1002
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0981
-};</t>
-  </si>
-  <si>
-    <t>Get enableCache as True</t>
-  </si>
-  <si>
-    <t>get webviewFramework</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0991_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0991
-};
-validate4
-{
-validate_SystemProperties=webviewFramework
-};</t>
-  </si>
-  <si>
-    <t>Do not set enableCache in Rhoconfig txt</t>
-  </si>
-  <si>
-    <t>Get enableCache as false</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0988_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0988
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0989_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0989
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0990_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0979_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab4_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0978_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Text_Exists=VT200-0978
-};
-validate6
-{
-validate_Result=http://127.0.0.1
-validate_Result=app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Screenshot=VT200_0987_before
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
-};
-validate7
-{
-validate_Screenshot=VT200_0987_after
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(Hello);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1607,10 +1601,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1634,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1738,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1790,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -1817,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
@@ -1842,7 +1836,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>42</v>
@@ -1869,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1896,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1923,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -1950,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="315.75" thickBot="1">
+    <row r="18" spans="1:11" ht="304.5" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1977,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2004,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2079,14 +2073,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2104,14 +2098,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2129,14 +2123,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2154,14 +2148,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2179,14 +2173,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -442,52 +442,544 @@
 };</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0983
+};
+validate5
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0980_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0979
+};
+validate5
+{
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1000_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1000
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+TakeScreenshot(VT200_1002_before);
+ZoomPage(body_xpath);
+wait(2);
+TakeScreenshot(VT200-1002);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-1002
+};
+validate4
+{
+validate_Result=1. enable_screen_zoom set value is 0
+validate_Result=2. WebView enableZoom value is false
+};
+validate5
+{
+validate_Screenshot=VT200_1002_before
+validate_Screenshot=VT200-1002
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0981
+};</t>
+  </si>
+  <si>
+    <t>Get enableCache as True</t>
+  </si>
+  <si>
+    <t>get webviewFramework</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0991_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0991
+};
+validate4
+{
+validate_SystemProperties=webviewFramework
+};</t>
+  </si>
+  <si>
+    <t>Do not set enableCache in Rhoconfig txt</t>
+  </si>
+  <si>
+    <t>Get enableCache as false</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0988_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0988
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0989_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0989
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0990_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0990
+};
+validate4
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Text_Exists=VT200-0978
+};
+validate6
+{
+validate_Result=http://127.0.0.1
+validate_Result=app/WebviewNew/Page4.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate5
+{
+validate_Screenshot=VT200_0987_before
+};
+validate6
+{
+validate_Text_Exists=VT200-0987
+};
+validate7
+{
+validate_Screenshot=VT200_0987_after
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};
+validate6
+{
+validate_Text_Exists=VT200-0986
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0985
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(10);
+TakeNativeScreenshot(VT200_0987_before);
+validate5;
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+TakeNativeScreenshot(VT200_0987_after);
+validate7;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab4_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0979_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0981_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(webview_test_link);
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0977_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate5;
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Google);
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0983
-};
-validate5
-{
-validate_Result=true
-};</t>
   </si>
   <si>
     <t>wait(3);
@@ -498,319 +990,39 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(5);
+CheckUITextContains(Google);
+ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0980_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0979
-};
-validate5
-{
-validate_Result=http://127.0.0.1:
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1000_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1000
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-TakeScreenshot(VT200_1002_before);
-ZoomPage(body_xpath);
-wait(2);
-TakeScreenshot(VT200-1002);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-1002
-};
-validate4
-{
-validate_Result=1. enable_screen_zoom set value is 0
-validate_Result=2. WebView enableZoom value is false
-};
-validate5
-{
-validate_Screenshot=VT200_1002_before
-validate_Screenshot=VT200-1002
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0981
-};</t>
-  </si>
-  <si>
-    <t>Get enableCache as True</t>
-  </si>
-  <si>
-    <t>get webviewFramework</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0991_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0991
-};
-validate4
-{
-validate_SystemProperties=webviewFramework
-};</t>
-  </si>
-  <si>
-    <t>Do not set enableCache in Rhoconfig txt</t>
-  </si>
-  <si>
-    <t>Get enableCache as false</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0988_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0988
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0989_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0989
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0990_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0990
-};
-validate4
-{
-validate_Result=false
-};</t>
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Page1);</t>
   </si>
   <si>
     <t>wait(3);
@@ -824,228 +1036,19 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
+wait(2);
 validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab4_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0978_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Text_Exists=VT200-0978
-};
-validate6
-{
-validate_Result=http://127.0.0.1
-validate_Result=app/WebviewNew/Page4.html
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate5
-{
-validate_Screenshot=VT200_0987_before
-};
-validate6
-{
-validate_Text_Exists=VT200-0987
-};
-validate7
-{
-validate_Screenshot=VT200_0987_after
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-link_Click(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(Hello);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};
-validate6
-{
-validate_Text_Exists=VT200-0986
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0985
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -1054,26 +1057,23 @@
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(2);
-link_Click(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
+validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Google);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0977_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate5;
 </t>
   </si>
 </sst>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1601,10 +1601,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1732,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -1947,7 +1947,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1998,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>49</v>
@@ -2073,14 +2073,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2098,14 +2098,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2123,14 +2123,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2148,14 +2148,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2173,14 +2173,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -990,39 +990,48 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
+wait(2);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0977_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate5;
+</t>
   </si>
   <si>
     <t>wait(3);
@@ -1033,48 +1042,40 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
+wait(5);
+CheckUITextContains(Google);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
+ScrollUp_Page(body_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0977_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate5;
-</t>
+wait(4);
+CheckUITextContains(Page1);</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1998,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>75</v>
@@ -2025,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>50</v>
@@ -2052,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>49</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Webview_JS.xlsx
@@ -381,15 +381,134 @@
 validate1;
 link_Click(webview_test_link);
 validate2;
-SelectTestToRun(VT200_0995_string);
+SelectTestToRun(VT200_1000_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
+TakeScreenshot(VT200_1000);
 validate4;
-TakeNativeScreenshot(VT200_0995);
 wait(2);
 validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0999_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+TakeScreenshot(VT200_0999);
+validate4;
+wait(2);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0977
+};
+validate5
+{
+validate_Alert=Active Tab is: 1
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0983
+};
+validate5
+{
+validate_Result=true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0980_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Webview JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0976
+};
+validate4
+{
+validate_Text_Exists=VT200-0979
+};
+validate5
+{
+validate_Result=http://127.0.0.1:
+validate_Result=app/WebviewTest/Page1.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_1003_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
   </si>
   <si>
     <t>wait(3);
@@ -400,140 +519,6 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200_1000);
-validate4;
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0999_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200_0999);
-validate4;
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0977
-};
-validate5
-{
-validate_Alert=Active Tab is: 1
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0983
-};
-validate5
-{
-validate_Result=true
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0980_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-validate5;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Webview JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0976
-};
-validate4
-{
-validate_Text_Exists=VT200-0979
-};
-validate5
-{
-validate_Result=http://127.0.0.1:
-validate_Result=app/WebviewTest/Page1.html
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1003_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_1000_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
 validate4;</t>
   </si>
   <si>
@@ -858,24 +843,21 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(10);
-TakeNativeScreenshot(VT200_0987_before);
-validate5;
+ClickNativeIcon(VT200_0976_tab4_xpath);
+wait(2);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0987_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-TakeNativeScreenshot(VT200_0987_after);
-validate7;</t>
+SelectTestToRun(VT200_0978_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -889,13 +871,13 @@
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
-ClickNativeIcon(VT200_0976_tab4_xpath);
+ClickNativeIcon(VT200_0976_tab1_xpath);
 wait(2);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0978_string);
+SelectTestToRun(VT200_0979_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
@@ -920,12 +902,41 @@
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0979_string);
+SelectTestToRun(VT200_0981_string);
 ClickRunTest(runtest_top_xpath);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-validate5;</t>
+CheckUITextContains(Hello);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0976_string);
+ClickRunTest(runtest_top_xpath);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(4);
+CheckUITextContains(Google);
+</t>
   </si>
   <si>
     <t>wait(3);
@@ -945,12 +956,13 @@
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0981_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0983_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
 validate4;
 ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(Hello);</t>
+wait(2);
+validate5;</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -959,26 +971,23 @@
 validate2;
 SelectTestToRun(VT200_0976_string);
 ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
+validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Google);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0977_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate5;
 </t>
   </si>
   <si>
@@ -990,48 +999,40 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+wait(2);
+ClickNativeIcon(VT200_0976_tab0_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+SelectTestToRun(VT200_0985_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
+wait(5);
+CheckUITextContains(Google);
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0983_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT200_0976_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
+ScrollUp_Page(body_xpath);
+SelectTestToRun(VT200_0986_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-SelectTestToRun(VT200_0977_string);
-ClickRunTest(runtest_top_xpath);
-validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate5;
-</t>
+wait(4);
+CheckUITextContains(Page1);</t>
   </si>
   <si>
     <t>wait(3);
@@ -1042,40 +1043,39 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
 SwitchApp(NATIVE_APP);
 wait(2);
 ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(2);
+wait(10);
+TakeScreenshot(VT200_0987_before);
+validate5;
 ClickNativeIcon(VT200_0976_tab0_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-SelectTestToRun(VT200_0985_string);
-ClickRunTest(runtest_top_xpath);
+SelectTestToRun(VT200_0987_string);
+ClickRunTest(runtest_top_xpath);
+validate6;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0976_tab1_xpath);
+TakeScreenshot(VT200_0987_after);
+validate7;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT200_0995_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
 validate4;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(5);
-CheckUITextContains(Google);
-ClickNativeIcon(VT200_0976_tab0_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-ScrollUp_Page(body_xpath);
-SelectTestToRun(VT200_0986_string);
-ClickRunTest(runtest_top_xpath);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0976_tab1_xpath);
-wait(4);
-CheckUITextContains(Page1);</t>
+TakeScreenshot(VT200_0995);
+wait(2);
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1602,10 +1602,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1629,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>34</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>40</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>42</v>
@@ -1864,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1891,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -1945,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1999,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2026,10 +2026,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2053,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2074,14 +2074,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2099,14 +2099,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2124,14 +2124,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2149,14 +2149,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2174,14 +2174,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
